--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 5\Flutter Backend\Project Kelompok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 5\Flutter Backend\Project Kelompok\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C69527-FB20-474B-A5B1-5FCD2513F01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1624CE-A485-4D2A-807E-56280A4968B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7810" xr2:uid="{F011039E-4318-4989-B0F3-E30542DD063F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F011039E-4318-4989-B0F3-E30542DD063F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Kategori</t>
   </si>
@@ -60,13 +60,31 @@
   </si>
   <si>
     <t>Accessories</t>
+  </si>
+  <si>
+    <t>https://github.com/angelodellamorte404/file-project-dvs/blob/main/kategori/accessories%20done.jpg.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/angelodellamorte404/file-project-dvs/blob/main/kategori/camera%20done.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/angelodellamorte404/file-project-dvs/blob/main/kategori/computer%20done.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/angelodellamorte404/file-project-dvs/blob/main/kategori/gaming%20done.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/angelodellamorte404/file-project-dvs/blob/main/kategori/smartphone%20done.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/angelodellamorte404/file-project-dvs/blob/main/kategori/television%20done.png?raw=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +95,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,22 +137,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,28 +473,32 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="100.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -477,8 +512,11 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -487,8 +525,11 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,8 +538,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -506,22 +550,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,7 +580,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{DC03C405-6A28-48D3-A18D-F8379C45842F}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{12C17C20-1F3B-49C0-BBF5-48BD4D71B652}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{B0A308B6-603E-4361-90A9-AF4D437C820A}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{CF661BD8-F755-4043-A1A6-0F995455343D}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{67E82E19-50DE-4994-9092-F7E9FA899818}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{3596AB8C-CA44-4CB3-AE6D-6AC461999DB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 5\Flutter Backend\Project Kelompok\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1624CE-A485-4D2A-807E-56280A4968B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87107A83-85F8-462C-A7F8-7AEA29CA01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F011039E-4318-4989-B0F3-E30542DD063F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accessories" sheetId="1" r:id="rId1"/>
+    <sheet name="Camera" sheetId="2" r:id="rId2"/>
+    <sheet name="Computer" sheetId="3" r:id="rId3"/>
+    <sheet name="Gaming" sheetId="4" r:id="rId4"/>
+    <sheet name="Smartphone" sheetId="5" r:id="rId5"/>
+    <sheet name="Television" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>Kategori</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Nama</t>
   </si>
@@ -84,16 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,18 +112,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,23 +131,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,125 +483,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4F517-61BA-43E2-A85D-6B7B9BAD4E0F}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{DC03C405-6A28-48D3-A18D-F8379C45842F}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{12C17C20-1F3B-49C0-BBF5-48BD4D71B652}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{B0A308B6-603E-4361-90A9-AF4D437C820A}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{CF661BD8-F755-4043-A1A6-0F995455343D}"/>
-    <hyperlink ref="B23" r:id="rId5" xr:uid="{67E82E19-50DE-4994-9092-F7E9FA899818}"/>
-    <hyperlink ref="B19" r:id="rId6" xr:uid="{3596AB8C-CA44-4CB3-AE6D-6AC461999DB2}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{67E82E19-50DE-4994-9092-F7E9FA899818}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41DE146-424F-45DA-B82C-926023826776}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="94.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{12C17C20-1F3B-49C0-BBF5-48BD4D71B652}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47641324-ECE0-4661-9029-F0347CCB8A55}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="96.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B0A308B6-603E-4361-90A9-AF4D437C820A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81233849-3B6C-4416-81F3-ECB0276FC5F5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="94" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{CF661BD8-F755-4043-A1A6-0F995455343D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC927DCC-CDAA-4FC5-9383-C1B27606B993}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{DC03C405-6A28-48D3-A18D-F8379C45842F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31497A4-1D26-4CA9-8872-BF89F06597C0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{3596AB8C-CA44-4CB3-AE6D-6AC461999DB2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 5\Flutter Backend\Project Kelompok\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87107A83-85F8-462C-A7F8-7AEA29CA01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEEAEA6-5B21-4653-867B-D2E442D005D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F011039E-4318-4989-B0F3-E30542DD063F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="677" firstSheet="1" activeTab="8" xr2:uid="{F011039E-4318-4989-B0F3-E30542DD063F}"/>
   </bookViews>
   <sheets>
     <sheet name="Accessories" sheetId="1" r:id="rId1"/>
     <sheet name="Camera" sheetId="2" r:id="rId2"/>
     <sheet name="Computer" sheetId="3" r:id="rId3"/>
     <sheet name="Gaming" sheetId="4" r:id="rId4"/>
-    <sheet name="Smartphone" sheetId="5" r:id="rId5"/>
-    <sheet name="Television" sheetId="6" r:id="rId6"/>
+    <sheet name="Kipas Angin" sheetId="7" r:id="rId5"/>
+    <sheet name="Mesin Cuci" sheetId="8" r:id="rId6"/>
+    <sheet name="Setrika" sheetId="9" r:id="rId7"/>
+    <sheet name="Smartphone" sheetId="5" r:id="rId8"/>
+    <sheet name="Television" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Samsung Galaxy Note10</t>
-  </si>
-  <si>
     <t>Camera</t>
   </si>
   <si>
@@ -80,12 +80,300 @@
   </si>
   <si>
     <t>https://github.com/angelodellamorte404/file-project-dvs/blob/main/kategori/television%20done.png?raw=true</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323189/Deus%20Vult%20MarketPlace/accessories/Steelseries_Apex_5_fj07pv.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323182/Deus%20Vult%20MarketPlace/accessories/JBL_Flip_5_arb8fl.png</t>
+  </si>
+  <si>
+    <t>SVEN Mousepad Gaming</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323182/Deus%20Vult%20MarketPlace/accessories/SVEN_Mousepad_Gaming_inkj8p.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323178/Deus%20Vult%20MarketPlace/accessories/Sonic_Gearphone_5_smkyqy.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323178/Deus%20Vult%20MarketPlace/accessories/Razer_Viper_Ultimate_Wireless_oicp6n.png</t>
+  </si>
+  <si>
+    <t>Mouse Razer Viper Ultimate Wireless</t>
+  </si>
+  <si>
+    <t>Headphone Sonic Gearphone 5</t>
+  </si>
+  <si>
+    <t>Speaker JBL Flip 5</t>
+  </si>
+  <si>
+    <t>Keyboard Steelseries Apex 5</t>
+  </si>
+  <si>
+    <t>Nikon D3500</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323204/Deus%20Vult%20MarketPlace/camera/Nikon_D3500_w0mtuf.png</t>
+  </si>
+  <si>
+    <t>Sony ZV-1</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323199/Deus%20Vult%20MarketPlace/camera/Sony_ZV-1_celwrg.png</t>
+  </si>
+  <si>
+    <t>Canon Eos 1300d</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323191/Deus%20Vult%20MarketPlace/camera/Canon_Eos_1300d_qxtblw.png</t>
+  </si>
+  <si>
+    <t>Sony Handycam</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323187/Deus%20Vult%20MarketPlace/camera/Sony_Handycam_jiqfqi.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323186/Deus%20Vult%20MarketPlace/camera/Camera_Instax_Mini_11_p7xhbi.png</t>
+  </si>
+  <si>
+    <t>Camera Instax Mini 11</t>
+  </si>
+  <si>
+    <t>Macbook Pro 2020</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323203/Deus%20Vult%20MarketPlace/computer/Macbook_Pro_2020_iuuahl.png</t>
+  </si>
+  <si>
+    <t>Razer Blade Pro 17</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323201/Deus%20Vult%20MarketPlace/computer/Razer_Blade_Pro_17_f5iho8.png</t>
+  </si>
+  <si>
+    <t>Acer Aspire 5</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323201/Deus%20Vult%20MarketPlace/computer/Acer_Aspire_5_v1mhcv.png</t>
+  </si>
+  <si>
+    <t>Asus Vivobook 14</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323198/Deus%20Vult%20MarketPlace/computer/Asus_Vivobook_14_zykdhv.png</t>
+  </si>
+  <si>
+    <t>MSI Modern 14</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323193/Deus%20Vult%20MarketPlace/computer/MSI_Modern_14_jqsvwm.png</t>
+  </si>
+  <si>
+    <t>Steelseries Wheel Logitech</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323204/Deus%20Vult%20MarketPlace/gaming/Steering_Wheel_Logitech_g29_un9ifz.png</t>
+  </si>
+  <si>
+    <t>Xbox X Series</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323204/Deus%20Vult%20MarketPlace/gaming/Xbox_X_Series_cfsvzg.png</t>
+  </si>
+  <si>
+    <t>PlayStation 5</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323203/Deus%20Vult%20MarketPlace/gaming/PlayStation_5_zlptad.png</t>
+  </si>
+  <si>
+    <t>Nintendo Switch</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323203/Deus%20Vult%20MarketPlace/gaming/Nintendo_Switch_pzl4oa.png</t>
+  </si>
+  <si>
+    <t>Oculus Quest 2</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323191/Deus%20Vult%20MarketPlace/gaming/Oculus_Quest_2_lcnyyi.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323169/Deus%20Vult%20MarketPlace/smartphones/Xiaomi_11T_Pro_cwz28y.png</t>
+  </si>
+  <si>
+    <t>Xiamoi 11T Pro</t>
+  </si>
+  <si>
+    <t>Vivo T1 Pro 5G</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Plus</t>
+  </si>
+  <si>
+    <t>OPPO Find X5 Pro</t>
+  </si>
+  <si>
+    <t>Apple Iphone 11 Pro Max</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323169/Deus%20Vult%20MarketPlace/smartphones/Vivo_T1_Pro_5G_a6qqtb.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323169/Deus%20Vult%20MarketPlace/smartphones/Samsung_Galaxy_S22_Plus_v96omz.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323169/Deus%20Vult%20MarketPlace/smartphones/OPPO_FIND_X5_Pro_yy9e79.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323166/Deus%20Vult%20MarketPlace/smartphones/Apple_iPhone_11_Pro_Max_512GB_hqdny2.png</t>
+  </si>
+  <si>
+    <t>TCL LED 4K UHD ANDROID TV</t>
+  </si>
+  <si>
+    <t>65" Class S95B OLED 4K Smart TV 2022</t>
+  </si>
+  <si>
+    <t>LG 43 inch 4K Smart UHD TV</t>
+  </si>
+  <si>
+    <t>Realme Smart TV 32 inch</t>
+  </si>
+  <si>
+    <t>POLYTRON 32 inch LED TV</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323184/Deus%20Vult%20MarketPlace/tv/TCL_LED_4K_UHD_ANDROID_TV_43P615_SMART_ANDROID_https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323183/Deus%20Vult%20MarketPlace/tv/65_Class_S95B_OLED_4K_Smart_TV_2022_afyvfk.png10.0_zxdjq9.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323183/Deus%20Vult%20MarketPlace/tv/65_Class_S95B_OLED_4K_Smart_TV_2022_afyvfk.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323181/Deus%20Vult%20MarketPlace/tv/LG_43_inch_4K_Smart_UHD_TV_43UP7500_gcthn1.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323175/Deus%20Vult%20MarketPlace/tv/REALME_SMART_TV_32_INCH_TV_43_INCH_olxqn2.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323173/Deus%20Vult%20MarketPlace/tv/POLYTRON_32_Inch_LED_TV_PLD_32S1503_ttfslq.png</t>
+  </si>
+  <si>
+    <t>Kipas Angin</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323158/Deus%20Vult%20MarketPlace/kipas%20angin/Sharp_PJ-A26MY-B_Air_Cooler_dpim9a.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus%20Vult%20MarketPlace/kipas%20angin/Arashi_AR_118_SDW_Kipas_Angin_3in1_18_inch_bmsyya.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus%20Vult%20MarketPlace/kipas%20angin/Arashi_Helifan_AR-28_Kipas_Angin_Gantung_-_15_Watt_g9zual.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus%20Vult%20MarketPlace/kipas%20angin/SANEX_DESK_FAN_KIPAS_ANGIN_FD-1287_FD_1287_12_INCH_xj11co.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus%20Vult%20MarketPlace/kipas%20angin/KIPAS_ANGIN_MIYAKO_kas_1607_elcurs.png</t>
+  </si>
+  <si>
+    <t>Sharp PJ A26MY B Air Cooler</t>
+  </si>
+  <si>
+    <t>Arashi AR 118 SDW Kipas Angin 3in1 18 inch</t>
+  </si>
+  <si>
+    <t>Arashi Helifan AR 28 Kipas Angin Gantung 15 Watt</t>
+  </si>
+  <si>
+    <t>SANEX DESK FAN KIPAS ANGIN FD 1287 FD 1287 12 INCH</t>
+  </si>
+  <si>
+    <t>KIPAS ANGIN MIYAKO kas 1607</t>
+  </si>
+  <si>
+    <t>Mesin Cuci</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323163/Deus%20Vult%20MarketPlace/mesin%20cuci/Mesin_Cuci_Samsung_Front_Load_8kg_m7hh7z.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323163/Deus%20Vult%20MarketPlace/mesin%20cuci/POLYTRON_Mesin_Cuci_2_Tabung_Samba_Series_8_KG_-_PWM_8363P_m9hubm.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus%20Vult%20MarketPlace/mesin%20cuci/MESIN_CUCI_SHARP_ES-T90MW_8KG_bs819h.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus%20Vult%20MarketPlace/mesin%20cuci/MESIN_CUCI_1_TABUNG_4.5_KG_PORTABLE_TOP_LOADING_ARASHI_AWM_451A_eas1vb.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323161/Deus%20Vult%20MarketPlace/mesin%20cuci/MITO_Mesin_Cuci_Portable_WM-1_xvms3q.png</t>
+  </si>
+  <si>
+    <t>Mesin Cuci Samsung Front Load 8Kg</t>
+  </si>
+  <si>
+    <t>POLYTRON Mesin Cuci Tabung Samba Series KG PWM 8363P</t>
+  </si>
+  <si>
+    <t>MESIN CUCI SHARP ES-T90MW 8Kg</t>
+  </si>
+  <si>
+    <t>MESIN CUCI TABUNG KG PORTABLE TOP LOADING ARASHI AWM 451A</t>
+  </si>
+  <si>
+    <t>MITO Mesin Cuci Portable Wm-1</t>
+  </si>
+  <si>
+    <t>Setrika</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323173/Deus%20Vult%20MarketPlace/setrika/Setrika_Miyako_EI_-_1000_M_zwybjj.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323173/Deus%20Vult%20MarketPlace/setrika/SETRIKA_MASPION_HA_-_110_dq45ak.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323167/Deus%20Vult%20MarketPlace/setrika/ShopeePHILIPS_Setrika_Listrik_HD_1172_Classic_Dry_Iron_tyn5b3.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus%20Vult%20MarketPlace/setrika/Philips_3000_Series_Steam_Iron_ojjrn0.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus%20Vult%20MarketPlace/setrika/FeatherLight_Setrika_Uap_kyoiss.png</t>
+  </si>
+  <si>
+    <t>Setrika Miyako El 1000M</t>
+  </si>
+  <si>
+    <t>Setrika Maspion HA 110</t>
+  </si>
+  <si>
+    <t>PHILIPS Setrika Listrik HD 1172 Classic Dry Iron</t>
+  </si>
+  <si>
+    <t>Philips 3000 Series Steam Iron</t>
+  </si>
+  <si>
+    <t>FeatherLight Setrika Uap</t>
+  </si>
+  <si>
+    <t>Specs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,14 +404,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,12 +428,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,19 +527,323 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="1" diagonalDown="1">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal style="thin">
+          <color auto="1"/>
+        </diagonal>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{ED031AE3-128B-449B-B6C8-52BF50B77BB1}">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,6 +853,106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE7F8957-0EC5-4348-AD50-A7D016A192BE}" name="Table1" displayName="Table1" ref="A3:C8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:C8" xr:uid="{FE7F8957-0EC5-4348-AD50-A7D016A192BE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C77C875F-E7F4-45D5-AB86-BE5EF6DE222B}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2671F44C-85B3-466E-8946-F0812A71C5A7}" name="Image" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{E3887384-797C-4A98-B21D-C2DEE1D03D84}" name="Specs" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{43996CBC-E11B-4F61-8A84-004388776475}" name="Table3" displayName="Table3" ref="A3:B8" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A3:B8" xr:uid="{43996CBC-E11B-4F61-8A84-004388776475}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1210BF61-29DF-42BA-889D-DFB988335773}" name="Nama"/>
+    <tableColumn id="2" xr3:uid="{712B76B7-0CA2-44D1-BF7A-666ED260A4A7}" name="Image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B05E4264-777A-44EB-8545-EA40222A6517}" name="Table4" displayName="Table4" ref="A3:B8" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A3:B8" xr:uid="{B05E4264-777A-44EB-8545-EA40222A6517}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B2871EA8-76BE-49F9-91C5-F3C08708EAA5}" name="Nama"/>
+    <tableColumn id="2" xr3:uid="{670EC441-173A-4172-90F3-CD857B8D3A28}" name="Image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{01B3191E-1D47-4311-9A2B-F84FAF38E27D}" name="Table5" displayName="Table5" ref="A3:B8" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A3:B8" xr:uid="{01B3191E-1D47-4311-9A2B-F84FAF38E27D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{58686716-1C50-433A-B155-7B80E8F3535A}" name="Nama"/>
+    <tableColumn id="2" xr3:uid="{98B3C6FE-D619-4B8B-9CB9-1B4589FCB1E3}" name="Image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5B43CAA6-FF1D-4FD9-9C3A-BD6B7E1E124F}" name="Table10" displayName="Table10" ref="A3:B8" totalsRowShown="0">
+  <autoFilter ref="A3:B8" xr:uid="{5B43CAA6-FF1D-4FD9-9C3A-BD6B7E1E124F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9342A1F8-4ED5-4A13-9099-9E76E9D58D46}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{84AA1EFA-3AF4-44CC-9AB8-BE67424A0CD9}" name="Image" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7C9173ED-281A-4B72-A2D6-2492BE171938}" name="Table11" displayName="Table11" ref="A3:B8" totalsRowShown="0">
+  <autoFilter ref="A3:B8" xr:uid="{7C9173ED-281A-4B72-A2D6-2492BE171938}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C7A3EFBB-1E0A-4EE3-907A-18F0063E8D54}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{3202E83E-F4D0-412A-B6ED-5E7FEA3C3FC8}" name="Image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD9C53E4-D995-456C-8A21-A9F368A7DDF2}" name="Table12" displayName="Table12" ref="A3:B8" totalsRowShown="0">
+  <autoFilter ref="A3:B8" xr:uid="{FD9C53E4-D995-456C-8A21-A9F368A7DDF2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1F323149-ADB8-4738-A69C-C664B0D37A98}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F72C80E0-B9AA-4160-919E-6A5CFB08B593}" name="Image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0EB53518-15E7-4641-B828-94018EC66B5F}" name="Table8" displayName="Table8" ref="A3:B8" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A3:B8" xr:uid="{0EB53518-15E7-4641-B828-94018EC66B5F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BFB58667-E415-491A-814F-1DD1B1FEA19E}" name="Nama" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{67862E12-392B-46D6-8A14-C7F894993732}" name="Image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{21F84F20-6651-407D-87E1-CC7A7A0C0A1A}" name="Table9" displayName="Table9" ref="A3:B8" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A3:B8" xr:uid="{21F84F20-6651-407D-87E1-CC7A7A0C0A1A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7996F6AA-505B-49DB-8E49-C73300CD6A8A}" name="Nama"/>
+    <tableColumn id="2" xr3:uid="{7D159DEB-38AD-4EAE-A0B5-2F6C3A5D1A22}" name="Image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,55 +1252,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4F517-61BA-43E2-A85D-6B7B9BAD4E0F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="148.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{67E82E19-50DE-4994-9092-F7E9FA899818}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323189/Deus Vult MarketPlace/accessories/Steelseries_Apex_5_fj07pv.png" xr:uid="{6F14F9D1-3239-4B12-8671-A9EB8C87D4FB}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{639CB478-3A42-49DF-B4DA-96E2A1C6DBEB}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{0C31810F-9C9E-47B8-9643-54AC237CD34D}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323178/Deus Vult MarketPlace/accessories/Sonic_Gearphone_5_smkyqy.png" xr:uid="{2663DACD-0E6A-4F4C-956D-0FA2E01611D9}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323178/Deus Vult MarketPlace/accessories/Razer_Viper_Ultimate_Wireless_oicp6n.png" xr:uid="{01D027A1-4694-49CB-9104-7A37722D4452}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41DE146-424F-45DA-B82C-926023826776}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="94.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{12C17C20-1F3B-49C0-BBF5-48BD4D71B652}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323204/Deus Vult MarketPlace/camera/Nikon_D3500_w0mtuf.png" xr:uid="{C2B187BA-0FD5-41C8-81C2-5375AB37FC1E}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323199/Deus Vult MarketPlace/camera/Sony_ZV-1_celwrg.png" xr:uid="{41FB3A0A-BDD0-4B64-9D47-92DF8AC83286}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323191/Deus Vult MarketPlace/camera/Canon_Eos_1300d_qxtblw.png" xr:uid="{B0E623BD-64C5-4614-AE3F-A91FCF8C0640}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323187/Deus Vult MarketPlace/camera/Sony_Handycam_jiqfqi.png" xr:uid="{F60017AE-E025-4946-9CEA-F57D2C2D50E4}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323186/Deus Vult MarketPlace/camera/Camera_Instax_Mini_11_p7xhbi.png" xr:uid="{C11275F7-595B-4978-958C-7E68F6751800}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47641324-ECE0-4661-9029-F0347CCB8A55}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="137.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B0A308B6-603E-4361-90A9-AF4D437C820A}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323203/Deus Vult MarketPlace/computer/Macbook_Pro_2020_iuuahl.png" xr:uid="{89294EAB-3A75-4E50-92A3-EBF737BFBBB3}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323201/Deus Vult MarketPlace/computer/Razer_Blade_Pro_17_f5iho8.png" xr:uid="{F889E6F0-7306-4CE6-AEA3-051C1BAB08C4}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323201/Deus Vult MarketPlace/computer/Acer_Aspire_5_v1mhcv.png" xr:uid="{166FD086-1541-4042-B50B-DEE4C5C003B6}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323198/Deus Vult MarketPlace/computer/Asus_Vivobook_14_zykdhv.png" xr:uid="{028A71A4-421E-456C-867A-37CE14C4CBC9}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323193/Deus Vult MarketPlace/computer/MSI_Modern_14_jqsvwm.png" xr:uid="{8EA7B24B-F606-4657-A235-953AF7C7A7D1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81233849-3B6C-4416-81F3-ECB0276FC5F5}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -539,35 +1534,417 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{12C17C20-1F3B-49C0-BBF5-48BD4D71B652}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{CF661BD8-F755-4043-A1A6-0F995455343D}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323204/Deus Vult MarketPlace/gaming/Steering_Wheel_Logitech_g29_un9ifz.png" xr:uid="{9EFB8A78-06CF-47AC-920D-2585AB19C4AC}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323204/Deus Vult MarketPlace/gaming/Xbox_X_Series_cfsvzg.png" xr:uid="{F660A6A4-0F5B-431A-80A9-3D2CE51477C9}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323203/Deus Vult MarketPlace/gaming/PlayStation_5_zlptad.png" xr:uid="{199500C4-FA19-421D-908E-C2AD8C138CF3}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323203/Deus Vult MarketPlace/gaming/Nintendo_Switch_pzl4oa.png" xr:uid="{4BC52209-77BD-41D3-9355-24DA7B4A1290}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323191/Deus Vult MarketPlace/gaming/Oculus_Quest_2_lcnyyi.png" xr:uid="{15BA3316-E826-4A23-84BF-A46693FCAF7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47641324-ECE0-4661-9029-F0347CCB8A55}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD7CD52-B8A4-4D77-873A-D7F5D784ED87}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="96.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="55.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{48DFA36E-891A-46D7-B61D-C50F84459BDB}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus Vult MarketPlace/kipas angin/Arashi_AR_118_SDW_Kipas_Angin_3in1_18_inch_bmsyya.png" xr:uid="{B68EEDEF-CAC4-405F-8BC9-FDF0C48ED651}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus Vult MarketPlace/kipas angin/Arashi_Helifan_AR-28_Kipas_Angin_Gantung_-_15_Watt_g9zual.png" xr:uid="{423F2CD7-8C1B-482E-8029-C4891B67D6A1}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus Vult MarketPlace/kipas angin/SANEX_DESK_FAN_KIPAS_ANGIN_FD-1287_FD_1287_12_INCH_xj11co.png" xr:uid="{9221A79A-2277-4671-9B17-CC5B49525ACC}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323157/Deus Vult MarketPlace/kipas angin/KIPAS_ANGIN_MIYAKO_kas_1607_elcurs.png" xr:uid="{BC618E0E-B58E-4156-9E25-0C044D2C7078}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B68B27A-1E88-4CD0-AC55-6D0CEE94263E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.36328125" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323163/Deus Vult MarketPlace/mesin cuci/Mesin_Cuci_Samsung_Front_Load_8kg_m7hh7z.png" xr:uid="{BB64048B-1F25-494A-B630-0B91C5ADFAAB}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323163/Deus Vult MarketPlace/mesin cuci/POLYTRON_Mesin_Cuci_2_Tabung_Samba_Series_8_KG_-_PWM_8363P_m9hubm.png" xr:uid="{94603AF7-1AB4-46FA-A727-17264FB65B69}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus Vult MarketPlace/mesin cuci/MESIN_CUCI_SHARP_ES-T90MW_8KG_bs819h.png" xr:uid="{8A14424B-E0BC-40C5-A022-04F885A15E37}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus Vult MarketPlace/mesin cuci/MESIN_CUCI_1_TABUNG_4.5_KG_PORTABLE_TOP_LOADING_ARASHI_AWM_451A_eas1vb.png" xr:uid="{A073B716-5828-4E17-A309-9ABE4E5D5DEF}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323161/Deus Vult MarketPlace/mesin cuci/MITO_Mesin_Cuci_Portable_WM-1_xvms3q.png" xr:uid="{8452E618-EF4F-4AC8-AAC3-3FF6B2E632C0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8502F9-4EF5-495B-8E73-16DD906CE8CB}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323173/Deus Vult MarketPlace/setrika/Setrika_Miyako_EI_-_1000_M_zwybjj.png" xr:uid="{93A58DAA-D82E-41EC-91CE-AC234BE7B954}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323173/Deus Vult MarketPlace/setrika/SETRIKA_MASPION_HA_-_110_dq45ak.png" xr:uid="{D5CAF2E2-6FC8-49D2-A610-A211C85EF38B}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323167/Deus Vult MarketPlace/setrika/ShopeePHILIPS_Setrika_Listrik_HD_1172_Classic_Dry_Iron_tyn5b3.png" xr:uid="{07CE0559-9FDF-469B-A83F-5E64905AEAE3}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus Vult MarketPlace/setrika/Philips_3000_Series_Steam_Iron_ojjrn0.png" xr:uid="{2ED7A62A-B13C-4F33-948F-7E3F01E79238}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323162/Deus Vult MarketPlace/setrika/FeatherLight_Setrika_Uap_kyoiss.png" xr:uid="{FDA1B964-F011-4D91-AFEF-60E559471D87}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC927DCC-CDAA-4FC5-9383-C1B27606B993}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{DC03C405-6A28-48D3-A18D-F8379C45842F}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323169/Deus Vult MarketPlace/smartphones/Xiaomi_11T_Pro_cwz28y.png" xr:uid="{456E3810-4983-4598-9B38-105417E8FE61}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6C48718C-7EB8-4E8B-ACE9-EF13E743034C}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323169/Deus Vult MarketPlace/smartphones/Samsung_Galaxy_S22_Plus_v96omz.png" xr:uid="{C2853E0B-18FC-4688-B3A4-12C19BCEE904}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323169/Deus Vult MarketPlace/smartphones/OPPO_FIND_X5_Pro_yy9e79.png" xr:uid="{A0863660-6936-43FB-A004-EC01C652D64D}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323166/Deus Vult MarketPlace/smartphones/Apple_iPhone_11_Pro_Max_512GB_hqdny2.png" xr:uid="{E5171656-3271-4CEE-A6B7-428D5541602A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31497A4-1D26-4CA9-8872-BF89F06597C0}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -575,133 +1952,69 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{B0A308B6-603E-4361-90A9-AF4D437C820A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81233849-3B6C-4416-81F3-ECB0276FC5F5}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="94" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{CF661BD8-F755-4043-A1A6-0F995455343D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC927DCC-CDAA-4FC5-9383-C1B27606B993}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{DC03C405-6A28-48D3-A18D-F8379C45842F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31497A4-1D26-4CA9-8872-BF89F06597C0}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{3596AB8C-CA44-4CB3-AE6D-6AC461999DB2}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323184/Deus%20Vult%20MarketPlace/tv/TCL_LED_4K_UHD_ANDROID_TV_43P615_SMART_ANDROID_https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323183/Deus%20Vult%20MarketPlace/tv/65_Class_S95B_OLED_4K_Smart_TV_2022_afyvfk.png10.0_zxdjq9.png" xr:uid="{FA8D21CF-6977-473E-B026-32DCFFF09E64}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323183/Deus Vult MarketPlace/tv/65_Class_S95B_OLED_4K_Smart_TV_2022_afyvfk.png" xr:uid="{076C92C0-D702-438E-8FC2-5C8ED005FADA}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323181/Deus Vult MarketPlace/tv/LG_43_inch_4K_Smart_UHD_TV_43UP7500_gcthn1.png" xr:uid="{62E6F36E-9F15-46FF-80E2-23227F01E5F4}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323175/Deus Vult MarketPlace/tv/REALME_SMART_TV_32_INCH_TV_43_INCH_olxqn2.png" xr:uid="{0B6650AF-86C8-4B7A-9365-437EF3E83BC5}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://res.cloudinary.com/angelo-della-morte-company/image/upload/v1665323173/Deus Vult MarketPlace/tv/POLYTRON_32_Inch_LED_TV_PLD_32S1503_ttfslq.png" xr:uid="{2C8F2E92-0C23-4336-99B4-C09119464FF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>